--- a/words_CZ/10.xlsx
+++ b/words_CZ/10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29AE339C-C99D-4803-8FFD-87FDE637920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409336C-7DB2-4507-9CA3-9B49D8922F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,49 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="574">
-  <si>
-    <t>štěstí</t>
-  </si>
-  <si>
-    <t>occupied, reserved</t>
-  </si>
-  <si>
-    <t>parkovat</t>
-  </si>
-  <si>
-    <t>to park (impf.)</t>
-  </si>
-  <si>
-    <t>щастя, удача, везіння</t>
-  </si>
-  <si>
-    <t>счастье, удача, везение</t>
-  </si>
-  <si>
-    <t>happiness, luck</t>
-  </si>
-  <si>
-    <t>balkon</t>
-  </si>
-  <si>
-    <t>batoh</t>
-  </si>
-  <si>
-    <t>cestovní</t>
-  </si>
-  <si>
-    <t>doba</t>
-  </si>
-  <si>
-    <t>dvojlůžkový</t>
-  </si>
-  <si>
-    <t>Evropa</t>
-  </si>
-  <si>
-    <t>Evropská unie</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="586">
   <si>
     <t>foukat</t>
   </si>
@@ -78,195 +36,33 @@
     <t>chladno</t>
   </si>
   <si>
-    <t>chodba</t>
-  </si>
-  <si>
     <t>jasno</t>
   </si>
   <si>
-    <t>jednolůžkový</t>
-  </si>
-  <si>
-    <t>jízdenka</t>
-  </si>
-  <si>
-    <t>kartáček (na zuby)</t>
-  </si>
-  <si>
     <t>když</t>
   </si>
   <si>
-    <t>klíč</t>
-  </si>
-  <si>
-    <t>kosmetika</t>
-  </si>
-  <si>
-    <t>křeslo</t>
-  </si>
-  <si>
-    <t>kufr</t>
-  </si>
-  <si>
-    <t>lednička</t>
-  </si>
-  <si>
-    <t>letenka</t>
-  </si>
-  <si>
     <t>mimo provoz</t>
   </si>
   <si>
-    <t>mokrý</t>
-  </si>
-  <si>
-    <t>nábytek</t>
-  </si>
-  <si>
     <t>nakonec</t>
   </si>
   <si>
-    <t>některý</t>
-  </si>
-  <si>
-    <t>nevýhoda</t>
-  </si>
-  <si>
-    <t>notebook</t>
-  </si>
-  <si>
-    <t>obsazený</t>
-  </si>
-  <si>
-    <t>odjezd</t>
-  </si>
-  <si>
-    <t>odlet</t>
-  </si>
-  <si>
-    <t>památka</t>
-  </si>
-  <si>
-    <t>papír</t>
-  </si>
-  <si>
-    <t>penzion</t>
-  </si>
-  <si>
-    <t>počasí</t>
-  </si>
-  <si>
     <t>polojasno</t>
   </si>
   <si>
-    <t>prázdný</t>
-  </si>
-  <si>
-    <t>příjezd</t>
-  </si>
-  <si>
-    <t>přílet</t>
-  </si>
-  <si>
-    <t>rozbitý</t>
-  </si>
-  <si>
-    <t>ručník</t>
-  </si>
-  <si>
-    <t>schod</t>
-  </si>
-  <si>
-    <t>smůla</t>
-  </si>
-  <si>
-    <t>suchý</t>
-  </si>
-  <si>
-    <t>ticho</t>
-  </si>
-  <si>
-    <t>tichý</t>
-  </si>
-  <si>
-    <t>ubytování</t>
-  </si>
-  <si>
-    <t>umyvadlo</t>
-  </si>
-  <si>
-    <t>vítr</t>
-  </si>
-  <si>
-    <t>výhoda</t>
-  </si>
-  <si>
-    <t>výtah</t>
-  </si>
-  <si>
-    <t>zahrada</t>
-  </si>
-  <si>
-    <t>zájezd</t>
-  </si>
-  <si>
-    <t>zařízený</t>
-  </si>
-  <si>
     <t>zataženo</t>
   </si>
   <si>
-    <t>zavazadlo</t>
-  </si>
-  <si>
-    <t>změna</t>
-  </si>
-  <si>
-    <t>zpáteční</t>
-  </si>
-  <si>
-    <t>zpoždění</t>
-  </si>
-  <si>
-    <t>akce</t>
-  </si>
-  <si>
-    <t>акція, подія, захід, знижка</t>
-  </si>
-  <si>
-    <t>акция, событие, мероприятие, скидка</t>
-  </si>
-  <si>
-    <t>action, event, special offer</t>
-  </si>
-  <si>
     <t>балкон</t>
   </si>
   <si>
     <t>balcony</t>
   </si>
   <si>
-    <t>рюкзак, ранець</t>
-  </si>
-  <si>
-    <t>рюкзак, ранец</t>
-  </si>
-  <si>
     <t>backpack, rucksack</t>
   </si>
   <si>
-    <t>подорожній, дорожній, туристичний</t>
-  </si>
-  <si>
-    <t>дорожный, туристический</t>
-  </si>
-  <si>
-    <t>travel (adj.), travelling</t>
-  </si>
-  <si>
-    <t>cestovní kancelář</t>
-  </si>
-  <si>
     <t>туристичне агентство, турфірма</t>
   </si>
   <si>
@@ -276,114 +72,15 @@
     <t>travel agency</t>
   </si>
   <si>
-    <t>час, період, доба</t>
-  </si>
-  <si>
-    <t>время, период, сутки</t>
-  </si>
-  <si>
     <t>time, period, era</t>
   </si>
   <si>
-    <t>doporučovat</t>
-  </si>
-  <si>
-    <t>рекомендувати, радити (недок.)</t>
-  </si>
-  <si>
-    <t>рекомендовать, советовать (недок.)</t>
-  </si>
-  <si>
-    <t>to recommend, to advise (impf.)</t>
-  </si>
-  <si>
-    <t>doporučit</t>
-  </si>
-  <si>
-    <t>порекомендувати, порадити (док.)</t>
-  </si>
-  <si>
-    <t>порекомендовать, посоветовать (док.)</t>
-  </si>
-  <si>
-    <t>to recommend, to advise (pf.)</t>
-  </si>
-  <si>
     <t>doprovodit</t>
   </si>
   <si>
-    <t>провести, супроводити (док.)</t>
-  </si>
-  <si>
-    <t>проводить, сопроводить (док.)</t>
-  </si>
-  <si>
-    <t>to accompany, to escort (pf.)</t>
-  </si>
-  <si>
-    <t>dostávat</t>
-  </si>
-  <si>
-    <t>отримувати, діставати (недок.)</t>
-  </si>
-  <si>
-    <t>получать, доставать (недок.)</t>
-  </si>
-  <si>
-    <t>to get, to receive (impf.)</t>
-  </si>
-  <si>
-    <t>dostat</t>
-  </si>
-  <si>
-    <t>отримати, дістати (док.)</t>
-  </si>
-  <si>
-    <t>получить, достать (док.)</t>
-  </si>
-  <si>
-    <t>to get, to receive (pf.)</t>
-  </si>
-  <si>
-    <t>dveře</t>
-  </si>
-  <si>
     <t>двері</t>
   </si>
   <si>
-    <t>дверь</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>двомісний, двоспальний</t>
-  </si>
-  <si>
-    <t>двухместный, двуспальный</t>
-  </si>
-  <si>
-    <t>double (adj.), twin (adj.)</t>
-  </si>
-  <si>
-    <t>dvojlůžková</t>
-  </si>
-  <si>
-    <t>двомісна, двоспальна</t>
-  </si>
-  <si>
-    <t>двухместная, двуспальная</t>
-  </si>
-  <si>
-    <t>dvojlůžkové</t>
-  </si>
-  <si>
-    <t>двомісне, двоспальне</t>
-  </si>
-  <si>
-    <t>двухместное, двуспальное</t>
-  </si>
-  <si>
     <t>Європа</t>
   </si>
   <si>
@@ -393,180 +90,27 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>Європейський Союз, ЄС</t>
-  </si>
-  <si>
-    <t>Европейский Союз, ЕС</t>
-  </si>
-  <si>
-    <t>European Union, EU</t>
-  </si>
-  <si>
-    <t>дути (про вітер), віяти</t>
-  </si>
-  <si>
-    <t>дуть (о ветре), веять</t>
-  </si>
-  <si>
     <t>to blow (wind)</t>
   </si>
   <si>
-    <t>головне, в основному, особливо</t>
-  </si>
-  <si>
-    <t>главное, в основном, особенно</t>
-  </si>
-  <si>
-    <t>mainly, primarily, especially</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>гість, відвідувач</t>
-  </si>
-  <si>
-    <t>гость, посетитель</t>
-  </si>
-  <si>
-    <t>guest</t>
-  </si>
-  <si>
-    <t>прохолодно, холод</t>
-  </si>
-  <si>
-    <t>прохладно, холод</t>
-  </si>
-  <si>
-    <t>cool, cold (weather)</t>
-  </si>
-  <si>
-    <t>коридор, прихожа</t>
-  </si>
-  <si>
-    <t>коридор, прихожая</t>
-  </si>
-  <si>
     <t>corridor, hallway</t>
   </si>
   <si>
     <t>chodit s</t>
   </si>
   <si>
-    <t>зустрічатися з, мати стосунки з (недок.)</t>
-  </si>
-  <si>
-    <t>встречаться с, иметь отношения с (недок.)</t>
-  </si>
-  <si>
-    <t>to date, to go out with (impf.)</t>
-  </si>
-  <si>
-    <t>ясно, сонячно, зрозуміло</t>
-  </si>
-  <si>
-    <t>ясно, солнечно, понятно</t>
-  </si>
-  <si>
-    <t>clear (weather), clear (adv.)</t>
-  </si>
-  <si>
-    <t>одномісний, односпальний</t>
-  </si>
-  <si>
-    <t>одноместный, односпальный</t>
-  </si>
-  <si>
-    <t>single (adj.)</t>
-  </si>
-  <si>
-    <t>jednolůžková</t>
-  </si>
-  <si>
-    <t>одномісна, односпальна</t>
-  </si>
-  <si>
-    <t>одноместная, односпальная</t>
-  </si>
-  <si>
-    <t>jednolůžkové</t>
-  </si>
-  <si>
-    <t>одномісне, односпальне</t>
-  </si>
-  <si>
-    <t>одноместное, односпальное</t>
-  </si>
-  <si>
-    <t>квиток (на проїзд)</t>
-  </si>
-  <si>
-    <t>билет (на проезд)</t>
-  </si>
-  <si>
-    <t>ticket (travel)</t>
-  </si>
-  <si>
-    <t>kancelář</t>
-  </si>
-  <si>
-    <t>офіс, канцелярія, кабінет</t>
-  </si>
-  <si>
-    <t>офис, канцелярия, кабинет</t>
-  </si>
-  <si>
-    <t>office, bureau</t>
-  </si>
-  <si>
-    <t>щітка (зубна), йоржик</t>
-  </si>
-  <si>
-    <t>щетка (зубная), ершик</t>
-  </si>
-  <si>
-    <t>brush (toothbrush)</t>
-  </si>
-  <si>
-    <t>коли, якщо, якби</t>
-  </si>
-  <si>
-    <t>когда, если, как если бы</t>
-  </si>
-  <si>
-    <t>when, if, as</t>
-  </si>
-  <si>
     <t>ключ</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>konec</t>
-  </si>
-  <si>
-    <t>кінець, завершення</t>
-  </si>
-  <si>
-    <t>конец, завершение</t>
-  </si>
-  <si>
-    <t>end, conclusion</t>
-  </si>
-  <si>
-    <t>na konci</t>
-  </si>
-  <si>
     <t>в кінці, наприкінці</t>
   </si>
   <si>
     <t>в конце</t>
   </si>
   <si>
-    <t>at the end</t>
-  </si>
-  <si>
     <t>косметика</t>
   </si>
   <si>
@@ -582,417 +126,69 @@
     <t>armchair</t>
   </si>
   <si>
-    <t>валіза, багажник</t>
-  </si>
-  <si>
-    <t>чемодан, багажник</t>
-  </si>
-  <si>
-    <t>suitcase, trunk (car)</t>
-  </si>
-  <si>
     <t>холодильник</t>
   </si>
   <si>
-    <t>fridge, refrigerator</t>
-  </si>
-  <si>
-    <t>авіаквиток</t>
-  </si>
-  <si>
     <t>авиабилет</t>
   </si>
   <si>
     <t>plane ticket, flight ticket</t>
   </si>
   <si>
-    <t>měnit</t>
-  </si>
-  <si>
-    <t>міняти, змінювати (недок.)</t>
-  </si>
-  <si>
-    <t>менять, изменять (недок.)</t>
-  </si>
-  <si>
-    <t>to change, to alter (impf.)</t>
-  </si>
-  <si>
-    <t>změnit</t>
-  </si>
-  <si>
-    <t>поміняти, змінити (док.)</t>
-  </si>
-  <si>
-    <t>поменять, изменить (док.)</t>
-  </si>
-  <si>
-    <t>to change, to alter (pf.)</t>
-  </si>
-  <si>
-    <t>не працює, не діє, виведений з ладу</t>
-  </si>
-  <si>
-    <t>не работает, не действует, выведен из строя</t>
-  </si>
-  <si>
     <t>out of order, out of service</t>
   </si>
   <si>
-    <t>мокрий, вологий</t>
-  </si>
-  <si>
-    <t>мокрый, влажный</t>
-  </si>
-  <si>
-    <t>wet</t>
-  </si>
-  <si>
-    <t>mokrá</t>
-  </si>
-  <si>
-    <t>мокра, волога</t>
-  </si>
-  <si>
-    <t>мокрая, влажная</t>
-  </si>
-  <si>
-    <t>mokré</t>
-  </si>
-  <si>
-    <t>мокре, вологе</t>
-  </si>
-  <si>
-    <t>мокрое, влажное</t>
-  </si>
-  <si>
-    <t>muzeum</t>
-  </si>
-  <si>
     <t>музей</t>
   </si>
   <si>
     <t>museum</t>
   </si>
   <si>
-    <t>меблі</t>
-  </si>
-  <si>
-    <t>мебель</t>
-  </si>
-  <si>
     <t>furniture</t>
   </si>
   <si>
     <t>nacházet se</t>
   </si>
   <si>
-    <t>знаходитися, розташовуватися (недок.)</t>
-  </si>
-  <si>
-    <t>находиться, располагаться (недок.)</t>
-  </si>
-  <si>
-    <t>to be located, to be situated (impf.)</t>
-  </si>
-  <si>
-    <t>нарешті, зрештою, під кінець</t>
-  </si>
-  <si>
-    <t>наконец, в конце концов, под конец</t>
-  </si>
-  <si>
     <t>finally, in the end, eventually</t>
   </si>
   <si>
-    <t>naplánovat</t>
-  </si>
-  <si>
-    <t>спланувати, намітити (док.)</t>
-  </si>
-  <si>
-    <t>спланировать, наметить (док.)</t>
-  </si>
-  <si>
-    <t>to plan (pf.)</t>
-  </si>
-  <si>
-    <t>plánovat</t>
-  </si>
-  <si>
-    <t>планувати, намічати (недок.)</t>
-  </si>
-  <si>
-    <t>планировать, намечать (недок.)</t>
-  </si>
-  <si>
-    <t>to plan (impf.)</t>
-  </si>
-  <si>
-    <t>nástupiště</t>
-  </si>
-  <si>
-    <t>перон, платформа, посадковий майданчик</t>
-  </si>
-  <si>
-    <t>перрон, платформа</t>
-  </si>
-  <si>
     <t>platform (train/bus)</t>
   </si>
   <si>
-    <t>деякий, котрийсь</t>
-  </si>
-  <si>
-    <t>некоторый, какой-то</t>
-  </si>
-  <si>
     <t>some, certain (male)</t>
   </si>
   <si>
-    <t>některá</t>
-  </si>
-  <si>
-    <t>деяка, котрась</t>
-  </si>
-  <si>
-    <t>некоторая, какая-то</t>
-  </si>
-  <si>
     <t>some, certain (female)</t>
   </si>
   <si>
-    <t>některé</t>
-  </si>
-  <si>
-    <t>деяке, котресь</t>
-  </si>
-  <si>
-    <t>некоторое, какое-то</t>
-  </si>
-  <si>
-    <t>some, certain (neut./pl.)</t>
-  </si>
-  <si>
-    <t>недолік, невигода</t>
-  </si>
-  <si>
-    <t>недостаток, невыгода</t>
-  </si>
-  <si>
-    <t>disadvantage, drawback</t>
-  </si>
-  <si>
-    <t>ноутбук, зошит</t>
-  </si>
-  <si>
-    <t>ноутбук, тетрадь</t>
-  </si>
-  <si>
-    <t>notebook, laptop</t>
-  </si>
-  <si>
-    <t>зайнятий, заброньований</t>
-  </si>
-  <si>
-    <t>занятый, забронированный</t>
-  </si>
-  <si>
-    <t>obsazená</t>
-  </si>
-  <si>
-    <t>зайнята, заброньована</t>
-  </si>
-  <si>
-    <t>занятая, забронированная</t>
-  </si>
-  <si>
-    <t>obsazené</t>
-  </si>
-  <si>
-    <t>зайняте, заброньоване</t>
-  </si>
-  <si>
-    <t>занятое, забронированное</t>
-  </si>
-  <si>
-    <t>від'їзд, відбуття</t>
-  </si>
-  <si>
-    <t>отъезд, отбытие</t>
-  </si>
-  <si>
-    <t>departure</t>
-  </si>
-  <si>
-    <t>відліт, виліт</t>
-  </si>
-  <si>
-    <t>вылет, отлет</t>
-  </si>
-  <si>
     <t>departure (by air)</t>
   </si>
   <si>
-    <t>organizovat</t>
-  </si>
-  <si>
-    <t>організовувати (недок.)</t>
-  </si>
-  <si>
-    <t>организовывать (недок.)</t>
-  </si>
-  <si>
-    <t>to organize (impf.)</t>
-  </si>
-  <si>
-    <t>zorganizovat</t>
-  </si>
-  <si>
-    <t>організувати (док.)</t>
-  </si>
-  <si>
-    <t>организовать (док.)</t>
-  </si>
-  <si>
-    <t>to organize (pf.)</t>
-  </si>
-  <si>
-    <t>пам'ятка, сувенір</t>
-  </si>
-  <si>
-    <t>памятник, сувенир</t>
-  </si>
-  <si>
-    <t>monument, souvenir, sight</t>
-  </si>
-  <si>
-    <t>папір, документ</t>
-  </si>
-  <si>
-    <t>бумага, документ</t>
-  </si>
-  <si>
     <t>paper</t>
   </si>
   <si>
-    <t>пансіон, міні-готель</t>
-  </si>
-  <si>
-    <t>пансионат, мини-отель</t>
-  </si>
-  <si>
-    <t>guesthouse, small hotel</t>
-  </si>
-  <si>
-    <t>plná penze</t>
-  </si>
-  <si>
-    <t>повний пансіон, повне забезпечення харчуванням</t>
-  </si>
-  <si>
-    <t>полный пансион, полное обеспечение питанием</t>
-  </si>
-  <si>
-    <t>full board (all meals included)</t>
-  </si>
-  <si>
     <t>погода</t>
   </si>
   <si>
     <t>weather</t>
   </si>
   <si>
-    <t>напівясно, мінлива хмарність</t>
-  </si>
-  <si>
-    <t>полуясно, переменная облачность</t>
-  </si>
-  <si>
-    <t>partly cloudy, partly clear</t>
-  </si>
-  <si>
-    <t>polopenze</t>
-  </si>
-  <si>
-    <t>напівпансіон, неповне забезпечення харчуванням</t>
-  </si>
-  <si>
-    <t>полупансион, неполное обеспечение питанием</t>
-  </si>
-  <si>
-    <t>half board (breakfast and dinner/lunch)</t>
-  </si>
-  <si>
     <t>pospíchat</t>
   </si>
   <si>
-    <t>поспішати, квапитися (недок.)</t>
-  </si>
-  <si>
-    <t>спешить, торопиться (недок.)</t>
-  </si>
-  <si>
-    <t>to hurry (impf.)</t>
-  </si>
-  <si>
-    <t>poznávat</t>
-  </si>
-  <si>
-    <t>пізнавати, знайомитися з (недок.)</t>
-  </si>
-  <si>
-    <t>узнавать, знакомиться с (недок.)</t>
-  </si>
-  <si>
-    <t>to get to know, to recognize (impf.)</t>
-  </si>
-  <si>
-    <t>poznat</t>
-  </si>
-  <si>
-    <t>пізнати, познайомитися з, розпізнати (док.)</t>
-  </si>
-  <si>
-    <t>узнать, познакомиться с, распознать (док.)</t>
-  </si>
-  <si>
-    <t>to get to know, to recognize (pf.)</t>
-  </si>
-  <si>
-    <t>prázdniny</t>
-  </si>
-  <si>
-    <t>канікули, відпустка</t>
-  </si>
-  <si>
-    <t>каникулы, отпуск</t>
-  </si>
-  <si>
-    <t>holidays, vacation</t>
-  </si>
-  <si>
     <t>порожній, вільний</t>
   </si>
   <si>
     <t>пустой, свободный</t>
   </si>
   <si>
-    <t>empty, vacant</t>
-  </si>
-  <si>
-    <t>prázdná</t>
-  </si>
-  <si>
     <t>порожня, вільна</t>
   </si>
   <si>
     <t>пустая, свободная</t>
   </si>
   <si>
-    <t>prázdné</t>
-  </si>
-  <si>
     <t>порожнє, вільне</t>
   </si>
   <si>
@@ -1002,33 +198,18 @@
     <t>Prší.</t>
   </si>
   <si>
-    <t>Дощить.</t>
-  </si>
-  <si>
-    <t>Идет дождь.</t>
-  </si>
-  <si>
     <t>It is raining.</t>
   </si>
   <si>
     <t>Pršelo.</t>
   </si>
   <si>
-    <t>Дощило.</t>
-  </si>
-  <si>
-    <t>Шел дождь.</t>
-  </si>
-  <si>
     <t>It was raining.</t>
   </si>
   <si>
     <t>Bude pršet.</t>
   </si>
   <si>
-    <t>Буде дощити.</t>
-  </si>
-  <si>
     <t>Будет дождь.</t>
   </si>
   <si>
@@ -1041,117 +222,18 @@
     <t>приезд, прибытие</t>
   </si>
   <si>
-    <t>arrival</t>
-  </si>
-  <si>
     <t>приліт, прибуття (літаком)</t>
   </si>
   <si>
-    <t>прилет, прибытие (самолетом)</t>
-  </si>
-  <si>
     <t>arrival (by air)</t>
   </si>
   <si>
-    <t>rande</t>
-  </si>
-  <si>
-    <t>побачення, рандеву</t>
-  </si>
-  <si>
-    <t>свидание, рандеву</t>
-  </si>
-  <si>
     <t>date (romantic)</t>
   </si>
   <si>
-    <t>recepce</t>
-  </si>
-  <si>
-    <t>рецепція, прийом, приймальня</t>
-  </si>
-  <si>
-    <t>рецепция, прием, приемная</t>
-  </si>
-  <si>
-    <t>reception, front desk</t>
-  </si>
-  <si>
-    <t>recepční</t>
-  </si>
-  <si>
-    <t>рецепціоніст, адміністратор</t>
-  </si>
-  <si>
-    <t>администратор, рецепционист</t>
-  </si>
-  <si>
-    <t>receptionist (male/female)</t>
-  </si>
-  <si>
-    <t>rezervovat si</t>
-  </si>
-  <si>
-    <t>резервувати собі, бронювати (недок.)</t>
-  </si>
-  <si>
-    <t>резервировать себе, бронировать (недок.)</t>
-  </si>
-  <si>
-    <t>to reserve, to book (impf.)</t>
-  </si>
-  <si>
-    <t>zarezervovat si</t>
-  </si>
-  <si>
-    <t>зарезервувати собі, забронювати (док.)</t>
-  </si>
-  <si>
-    <t>зарезервировать себе, забронировать (док.)</t>
-  </si>
-  <si>
-    <t>to reserve, to book (pf.)</t>
-  </si>
-  <si>
-    <t>розбитий, зламаний, пошкоджений</t>
-  </si>
-  <si>
-    <t>разбитый, сломанный, поврежденный</t>
-  </si>
-  <si>
-    <t>broken, smashed, damaged</t>
-  </si>
-  <si>
-    <t>rozbitá</t>
-  </si>
-  <si>
-    <t>розбита, зламана, пошкоджена</t>
-  </si>
-  <si>
-    <t>разбитая, сломанная, поврежденная</t>
-  </si>
-  <si>
-    <t>rozbité</t>
-  </si>
-  <si>
-    <t>розбите, зламане, пошкоджене</t>
-  </si>
-  <si>
-    <t>разбитое, сломанное, поврежденное</t>
-  </si>
-  <si>
     <t>rozejít se s</t>
   </si>
   <si>
-    <t>розійтися з, розлучитися з (док.)</t>
-  </si>
-  <si>
-    <t>разойтись с, расстаться с (док.)</t>
-  </si>
-  <si>
-    <t>to break up with, to separate from (pf.)</t>
-  </si>
-  <si>
     <t>рушник</t>
   </si>
   <si>
@@ -1161,30 +243,6 @@
     <t>towel</t>
   </si>
   <si>
-    <t>rušit</t>
-  </si>
-  <si>
-    <t>скасовувати, турбувати, перешкоджати (недок.)</t>
-  </si>
-  <si>
-    <t>отменять, беспокоить, мешать (недок.)</t>
-  </si>
-  <si>
-    <t>to cancel, to disturb, to interrupt (impf.)</t>
-  </si>
-  <si>
-    <t>zrušit</t>
-  </si>
-  <si>
-    <t>скасувати, анулювати (док.)</t>
-  </si>
-  <si>
-    <t>отменить, аннулировать (док.)</t>
-  </si>
-  <si>
-    <t>to cancel, to abolish (pf.)</t>
-  </si>
-  <si>
     <t>mít s sebou</t>
   </si>
   <si>
@@ -1194,93 +252,9 @@
     <t>иметь с собой</t>
   </si>
   <si>
-    <t>to have with oneself</t>
-  </si>
-  <si>
-    <t>vzít si s sebou</t>
-  </si>
-  <si>
-    <t>взяти з собою (док.)</t>
-  </si>
-  <si>
-    <t>взять с собой (док.)</t>
-  </si>
-  <si>
-    <t>to take with oneself (pf.)</t>
-  </si>
-  <si>
-    <t>brát si s sebou</t>
-  </si>
-  <si>
-    <t>брати з собою (недок.)</t>
-  </si>
-  <si>
-    <t>брать с собой (недок.)</t>
-  </si>
-  <si>
-    <t>to take with oneself (impf.)</t>
-  </si>
-  <si>
-    <t>setkávat se s</t>
-  </si>
-  <si>
-    <t>зустрічатися з (недок.)</t>
-  </si>
-  <si>
-    <t>встречаться с (недок.)</t>
-  </si>
-  <si>
-    <t>to meet with (impf.)</t>
-  </si>
-  <si>
-    <t>setkat se s</t>
-  </si>
-  <si>
-    <t>зустрітися з (док.)</t>
-  </si>
-  <si>
-    <t>встретиться с (док.)</t>
-  </si>
-  <si>
-    <t>to meet with (pf.)</t>
-  </si>
-  <si>
-    <t>seznamovat se s</t>
-  </si>
-  <si>
-    <t>знайомитися з (недок.)</t>
-  </si>
-  <si>
-    <t>знакомиться с (недок.)</t>
-  </si>
-  <si>
-    <t>to get acquainted with (impf.)</t>
-  </si>
-  <si>
-    <t>seznámit se s</t>
-  </si>
-  <si>
-    <t>познайомитися з (док.)</t>
-  </si>
-  <si>
-    <t>познакомиться с (док.)</t>
-  </si>
-  <si>
-    <t>to get acquainted with (pf.)</t>
-  </si>
-  <si>
-    <t>сходинка, щабель</t>
-  </si>
-  <si>
-    <t>ступенька, лестница</t>
-  </si>
-  <si>
     <t>step, stair</t>
   </si>
   <si>
-    <t>slunce</t>
-  </si>
-  <si>
     <t>сонце</t>
   </si>
   <si>
@@ -1293,153 +267,45 @@
     <t>smát se</t>
   </si>
   <si>
-    <t>сміятися (недок.)</t>
-  </si>
-  <si>
-    <t>смеяться (недок.)</t>
-  </si>
-  <si>
-    <t>to laugh (impf.)</t>
-  </si>
-  <si>
-    <t>невдача, невезіння, смола</t>
-  </si>
-  <si>
-    <t>невезение, неудача, смола</t>
-  </si>
-  <si>
-    <t>bad luck, misfortune, resin</t>
-  </si>
-  <si>
     <t>Sněží.</t>
   </si>
   <si>
-    <t>Сніжить., Іде сніг.</t>
-  </si>
-  <si>
-    <t>Идет снег.</t>
-  </si>
-  <si>
     <t>It is snowing.</t>
   </si>
   <si>
     <t>Sněžilo.</t>
   </si>
   <si>
-    <t>Сніжило., Йшов сніг.</t>
-  </si>
-  <si>
-    <t>Шел снег.</t>
-  </si>
-  <si>
     <t>It was snowing.</t>
   </si>
   <si>
     <t>Bude sněžit.</t>
   </si>
   <si>
-    <t>Буде сніжити., Ітиме сніг.</t>
-  </si>
-  <si>
     <t>Будет снег.</t>
   </si>
   <si>
     <t>It will snow.</t>
   </si>
   <si>
-    <t>spousta</t>
-  </si>
-  <si>
-    <t>купа, багато</t>
-  </si>
-  <si>
-    <t>куча, много</t>
-  </si>
-  <si>
-    <t>a lot, plenty</t>
-  </si>
-  <si>
     <t>stát</t>
   </si>
   <si>
-    <t>стояти, коштувати (недок.)</t>
-  </si>
-  <si>
-    <t>стоять, стоить (недок.)</t>
-  </si>
-  <si>
-    <t>to stand, to cost (impf.)</t>
-  </si>
-  <si>
     <t>stojím</t>
   </si>
   <si>
-    <t>я стою, я коштую</t>
-  </si>
-  <si>
-    <t>я стою, я стою</t>
-  </si>
-  <si>
-    <t>I stand, I cost</t>
-  </si>
-  <si>
-    <t>stál</t>
-  </si>
-  <si>
-    <t>він стояв, він коштував</t>
-  </si>
-  <si>
-    <t>он стоял, он стоил</t>
-  </si>
-  <si>
-    <t>he stood, it cost</t>
-  </si>
-  <si>
-    <t>strávit</t>
-  </si>
-  <si>
-    <t>провести, витратити (час) (док.)</t>
-  </si>
-  <si>
-    <t>провести, потратить (время) (док.)</t>
-  </si>
-  <si>
-    <t>to spend (time) (pf.)</t>
-  </si>
-  <si>
-    <t>trávit</t>
-  </si>
-  <si>
-    <t>проводити, витрачати (час) (недок.)</t>
-  </si>
-  <si>
-    <t>проводить, тратить (время) (недок.)</t>
-  </si>
-  <si>
-    <t>to spend (time) (impf.)</t>
-  </si>
-  <si>
     <t>сухий</t>
   </si>
   <si>
     <t>сухой</t>
   </si>
   <si>
-    <t>dry</t>
-  </si>
-  <si>
-    <t>suchá</t>
-  </si>
-  <si>
     <t>суха</t>
   </si>
   <si>
     <t>сухая</t>
   </si>
   <si>
-    <t>suché</t>
-  </si>
-  <si>
     <t>сухе</t>
   </si>
   <si>
@@ -1449,63 +315,18 @@
     <t>svítit</t>
   </si>
   <si>
-    <t>світити, сяяти (недок.)</t>
-  </si>
-  <si>
-    <t>светить, сиять (недок.)</t>
-  </si>
-  <si>
-    <t>to shine, to illuminate (impf.)</t>
-  </si>
-  <si>
-    <t>тиша, тихо</t>
-  </si>
-  <si>
     <t>тишина, тихо</t>
   </si>
   <si>
     <t>silence, quiet</t>
   </si>
   <si>
-    <t>тихий, мовчазний, спокійний</t>
-  </si>
-  <si>
-    <t>тихий, молчаливый, спокойный</t>
-  </si>
-  <si>
-    <t>quiet, silent, peaceful</t>
-  </si>
-  <si>
-    <t>tichá</t>
-  </si>
-  <si>
-    <t>тиха, мовчазна, спокійна</t>
-  </si>
-  <si>
-    <t>тихая, молчаливая, спокойная</t>
-  </si>
-  <si>
-    <t>tiché</t>
-  </si>
-  <si>
-    <t>тихе, мовчазне, спокійне</t>
-  </si>
-  <si>
-    <t>тихое, молчаливое, спокойное</t>
-  </si>
-  <si>
-    <t>turista</t>
-  </si>
-  <si>
     <t>турист</t>
   </si>
   <si>
     <t>tourist (male)</t>
   </si>
   <si>
-    <t>turistka</t>
-  </si>
-  <si>
     <t>туристка</t>
   </si>
   <si>
@@ -1515,24 +336,9 @@
     <t>проживання, житло</t>
   </si>
   <si>
-    <t>проживание, жилье</t>
-  </si>
-  <si>
-    <t>accommodation, lodging</t>
-  </si>
-  <si>
     <t>ubytovat se</t>
   </si>
   <si>
-    <t>оселитися, розміститися (док.)</t>
-  </si>
-  <si>
-    <t>поселиться, разместиться (док.)</t>
-  </si>
-  <si>
-    <t>to accommodate oneself, to settle in (pf.)</t>
-  </si>
-  <si>
     <t>умивальник, раковина</t>
   </si>
   <si>
@@ -1545,27 +351,9 @@
     <t>Jak je venku?</t>
   </si>
   <si>
-    <t>Як там на вулиці?, Яка погода надворі?</t>
-  </si>
-  <si>
-    <t>Как там на улице?, Какая погода на дворе?</t>
-  </si>
-  <si>
-    <t>What's it like outside?</t>
-  </si>
-  <si>
     <t>věřit</t>
   </si>
   <si>
-    <t>вірити, довіряти (недок.)</t>
-  </si>
-  <si>
-    <t>верить, доверять (недок.)</t>
-  </si>
-  <si>
-    <t>to believe, to trust (impf.)</t>
-  </si>
-  <si>
     <t>вітер</t>
   </si>
   <si>
@@ -1575,27 +363,15 @@
     <t>wind</t>
   </si>
   <si>
-    <t>перевага, вигода</t>
-  </si>
-  <si>
     <t>преимущество, выгода</t>
   </si>
   <si>
-    <t>advantage, benefit</t>
-  </si>
-  <si>
     <t>ліфт</t>
   </si>
   <si>
     <t>лифт</t>
   </si>
   <si>
-    <t>lift, elevator</t>
-  </si>
-  <si>
-    <t>začátek</t>
-  </si>
-  <si>
     <t>початок</t>
   </si>
   <si>
@@ -1605,148 +381,1408 @@
     <t>beginning, start</t>
   </si>
   <si>
-    <t>na začátku</t>
-  </si>
-  <si>
     <t>на початку</t>
   </si>
   <si>
     <t>в начале</t>
   </si>
   <si>
-    <t>at the beginning</t>
-  </si>
-  <si>
     <t>сад, город</t>
   </si>
   <si>
     <t>сад, огород</t>
   </si>
   <si>
-    <t>garden, yard</t>
-  </si>
-  <si>
-    <t>тур, поїздка, екскурсія</t>
-  </si>
-  <si>
-    <t>тур, поездка, экскурсия</t>
-  </si>
-  <si>
-    <t>trip, tour, organized trip</t>
-  </si>
-  <si>
-    <t>zaparkovat</t>
-  </si>
-  <si>
-    <t>припаркувати (док.)</t>
-  </si>
-  <si>
-    <t>припарковать (док.)</t>
-  </si>
-  <si>
-    <t>to park (pf.)</t>
-  </si>
-  <si>
-    <t>паркувати (недок.)</t>
-  </si>
-  <si>
-    <t>парковать (недок.)</t>
-  </si>
-  <si>
-    <t>обладнаний, умебльований</t>
-  </si>
-  <si>
-    <t>оборудованный, меблированный</t>
-  </si>
-  <si>
-    <t>furnished, equipped</t>
-  </si>
-  <si>
-    <t>zařízená</t>
-  </si>
-  <si>
-    <t>обладнана, умебльована</t>
-  </si>
-  <si>
-    <t>оборудованная, меблированная</t>
-  </si>
-  <si>
-    <t>zařízené</t>
-  </si>
-  <si>
-    <t>обладнане, умебльоване</t>
-  </si>
-  <si>
-    <t>оборудованное, меблированное</t>
-  </si>
-  <si>
-    <t>похмуро, затягнуто (про небо)</t>
-  </si>
-  <si>
-    <t>пасмурно, затянуто (о небе)</t>
-  </si>
-  <si>
-    <t>overcast, cloudy</t>
-  </si>
-  <si>
-    <t>багаж, валіза</t>
-  </si>
-  <si>
-    <t>багаж, чемодан</t>
-  </si>
-  <si>
     <t>luggage, baggage</t>
   </si>
   <si>
-    <t>zjistit</t>
-  </si>
-  <si>
-    <t>з'ясувати, дізнатися, встановити (док.)</t>
-  </si>
-  <si>
-    <t>выяснить, узнать, установить (док.)</t>
-  </si>
-  <si>
-    <t>to find out, to ascertain (pf.)</t>
-  </si>
-  <si>
-    <t>зміна, переміна</t>
-  </si>
-  <si>
-    <t>изменение, перемена</t>
-  </si>
-  <si>
     <t>change, alteration</t>
   </si>
   <si>
-    <t>змінити, поміняти (док.)</t>
-  </si>
-  <si>
-    <t>изменить, поменять (док.)</t>
-  </si>
-  <si>
-    <t>змінювати, міняти (недок.)</t>
-  </si>
-  <si>
-    <t>изменять, менять (недок.)</t>
-  </si>
-  <si>
-    <t>зворотний, назад</t>
-  </si>
-  <si>
-    <t>обратный, назад</t>
-  </si>
-  <si>
-    <t>return (adj.)</t>
-  </si>
-  <si>
-    <t>запізнення, затримка</t>
-  </si>
-  <si>
     <t>опоздание, задержка</t>
   </si>
   <si>
     <t>delay</t>
+  </si>
+  <si>
+    <t>(Ž) akce</t>
+  </si>
+  <si>
+    <t>1. акція (розпродаж) 2. подія, захід</t>
+  </si>
+  <si>
+    <t>1. акция (распродажа) 2. событие, мероприятие</t>
+  </si>
+  <si>
+    <t>1. sale, special offer 2. event, action</t>
+  </si>
+  <si>
+    <t>(M) balkon</t>
+  </si>
+  <si>
+    <t>(M) batoh</t>
+  </si>
+  <si>
+    <t>рюкзак, наплічник</t>
+  </si>
+  <si>
+    <t>рюкзак</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) cestovní</t>
+  </si>
+  <si>
+    <t>туристичний, дорожній</t>
+  </si>
+  <si>
+    <t>туристический, дорожный</t>
+  </si>
+  <si>
+    <t>travel (adj), traveling</t>
+  </si>
+  <si>
+    <t>(Ž) cestovní kancelář</t>
+  </si>
+  <si>
+    <t>(Ž) doba</t>
+  </si>
+  <si>
+    <t>час, період, епоха</t>
+  </si>
+  <si>
+    <t>время, период, эпоха</t>
+  </si>
+  <si>
+    <t>doporučovat (impf)</t>
+  </si>
+  <si>
+    <t>рекомендувати, радити</t>
+  </si>
+  <si>
+    <t>рекомендовать, советовать</t>
+  </si>
+  <si>
+    <t>to recommend (imperfective)</t>
+  </si>
+  <si>
+    <t>doporučit (pf)</t>
+  </si>
+  <si>
+    <t>порекомендувати, порадити</t>
+  </si>
+  <si>
+    <t>порекомендовать, посоветовать</t>
+  </si>
+  <si>
+    <t>to recommend (perfective)</t>
+  </si>
+  <si>
+    <t>супроводити, провести</t>
+  </si>
+  <si>
+    <t>сопроводить, проводить</t>
+  </si>
+  <si>
+    <t>to accompany</t>
+  </si>
+  <si>
+    <t>dostávat (impf)</t>
+  </si>
+  <si>
+    <t>отримувати, одержувати</t>
+  </si>
+  <si>
+    <t>получать</t>
+  </si>
+  <si>
+    <t>to receive, to get (imperfective)</t>
+  </si>
+  <si>
+    <t>dostat (pf)</t>
+  </si>
+  <si>
+    <t>отримати, одержати</t>
+  </si>
+  <si>
+    <t>получить</t>
+  </si>
+  <si>
+    <t>to receive, to get (perfective)</t>
+  </si>
+  <si>
+    <t>(Pl) dveře</t>
+  </si>
+  <si>
+    <t>дверь, двери</t>
+  </si>
+  <si>
+    <t>door, doors</t>
+  </si>
+  <si>
+    <t>(M) dvojlůžkový</t>
+  </si>
+  <si>
+    <t>двомісний (номер)</t>
+  </si>
+  <si>
+    <t>двухместный</t>
+  </si>
+  <si>
+    <t>double (room) (adj, male)</t>
+  </si>
+  <si>
+    <t>(Ž) dvojlůžková</t>
+  </si>
+  <si>
+    <t>двомісна (кімната)</t>
+  </si>
+  <si>
+    <t>двухместная</t>
+  </si>
+  <si>
+    <t>double (room) (adj, female)</t>
+  </si>
+  <si>
+    <t>(S) dvojlůžkové</t>
+  </si>
+  <si>
+    <t>двомісне (ліжко)</t>
+  </si>
+  <si>
+    <t>двухместное</t>
+  </si>
+  <si>
+    <t>double (bed) (adj, neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) Evropa</t>
+  </si>
+  <si>
+    <t>(Ž) Evropská unie</t>
+  </si>
+  <si>
+    <t>Європейський Союз</t>
+  </si>
+  <si>
+    <t>Европейский Союз, Евросоюз</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>дути (про вітер)</t>
+  </si>
+  <si>
+    <t>дуть (о ветре)</t>
+  </si>
+  <si>
+    <t>головне, перш за все</t>
+  </si>
+  <si>
+    <t>главное, прежде всего</t>
+  </si>
+  <si>
+    <t>mainly, especially</t>
+  </si>
+  <si>
+    <t>(M) host</t>
+  </si>
+  <si>
+    <t>гість</t>
+  </si>
+  <si>
+    <t>гость</t>
+  </si>
+  <si>
+    <t>guest (male)</t>
+  </si>
+  <si>
+    <t>прохолодно, холодно</t>
+  </si>
+  <si>
+    <t>прохладно, холодно</t>
+  </si>
+  <si>
+    <t>(it is) cool, chilly</t>
+  </si>
+  <si>
+    <t>(Ž) chodba</t>
+  </si>
+  <si>
+    <t>коридор</t>
+  </si>
+  <si>
+    <t>зустрічатися з (мати стосунки)</t>
+  </si>
+  <si>
+    <t>встречаться с (иметь отношения)</t>
+  </si>
+  <si>
+    <t>to date, to go out with</t>
+  </si>
+  <si>
+    <t>ясно (погода)</t>
+  </si>
+  <si>
+    <t>(it is) clear (weather)</t>
+  </si>
+  <si>
+    <t>(M) jednolůžkový</t>
+  </si>
+  <si>
+    <t>одномісний</t>
+  </si>
+  <si>
+    <t>одноместный</t>
+  </si>
+  <si>
+    <t>single (room) (adj, male)</t>
+  </si>
+  <si>
+    <t>(Ž) jednolůžková</t>
+  </si>
+  <si>
+    <t>одномісна</t>
+  </si>
+  <si>
+    <t>одноместная</t>
+  </si>
+  <si>
+    <t>single (room) (adj, female)</t>
+  </si>
+  <si>
+    <t>(S) jednolůžkové</t>
+  </si>
+  <si>
+    <t>одномісне</t>
+  </si>
+  <si>
+    <t>одноместное</t>
+  </si>
+  <si>
+    <t>single (bed) (adj, neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) jízdenka</t>
+  </si>
+  <si>
+    <t>квиток (на транспорт)</t>
+  </si>
+  <si>
+    <t>билет (на транспорт)</t>
+  </si>
+  <si>
+    <t>ticket (for transport)</t>
+  </si>
+  <si>
+    <t>(Ž) kancelář</t>
+  </si>
+  <si>
+    <t>офіс, кабінет</t>
+  </si>
+  <si>
+    <t>офис, кабинет, канцелярия</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>(M) kartáček (na zuby)</t>
+  </si>
+  <si>
+    <t>(зубна) щітка</t>
+  </si>
+  <si>
+    <t>(зубная) щётка</t>
+  </si>
+  <si>
+    <t>toothbrush</t>
+  </si>
+  <si>
+    <t>коли</t>
+  </si>
+  <si>
+    <t>когда</t>
+  </si>
+  <si>
+    <t>when, if</t>
+  </si>
+  <si>
+    <t>(M) klíč</t>
+  </si>
+  <si>
+    <t>(M) konec</t>
+  </si>
+  <si>
+    <t>кінець</t>
+  </si>
+  <si>
+    <t>конец</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>na (M) konci</t>
+  </si>
+  <si>
+    <t>at the end (of)</t>
+  </si>
+  <si>
+    <t>(Ž) kosmetika</t>
+  </si>
+  <si>
+    <t>(S) křeslo</t>
+  </si>
+  <si>
+    <t>(M) kufr</t>
+  </si>
+  <si>
+    <t>валіза</t>
+  </si>
+  <si>
+    <t>чемодан</t>
+  </si>
+  <si>
+    <t>suitcase, trunk</t>
+  </si>
+  <si>
+    <t>(Ž) lednička</t>
+  </si>
+  <si>
+    <t>refrigerator, fridge</t>
+  </si>
+  <si>
+    <t>(Ž) letenka</t>
+  </si>
+  <si>
+    <t>квиток на літак, авіаквиток</t>
+  </si>
+  <si>
+    <t>měnit (impf)</t>
+  </si>
+  <si>
+    <t>міняти, змінювати</t>
+  </si>
+  <si>
+    <t>менять, изменять</t>
+  </si>
+  <si>
+    <t>to change (imperfective)</t>
+  </si>
+  <si>
+    <t>změnit (pf)</t>
+  </si>
+  <si>
+    <t>поміняти, змінити</t>
+  </si>
+  <si>
+    <t>поменять, изменить</t>
+  </si>
+  <si>
+    <t>to change (perfective)</t>
+  </si>
+  <si>
+    <t>не працює, не в експлуатації</t>
+  </si>
+  <si>
+    <t>не работает, не в эксплуатации</t>
+  </si>
+  <si>
+    <t>(M) mokrý</t>
+  </si>
+  <si>
+    <t>мокрий</t>
+  </si>
+  <si>
+    <t>мокрый, сырой</t>
+  </si>
+  <si>
+    <t>wet (male)</t>
+  </si>
+  <si>
+    <t>(Ž) mokrá</t>
+  </si>
+  <si>
+    <t>мокра</t>
+  </si>
+  <si>
+    <t>мокрая, сырая</t>
+  </si>
+  <si>
+    <t>wet (female)</t>
+  </si>
+  <si>
+    <t>(S) mokré</t>
+  </si>
+  <si>
+    <t>мокре</t>
+  </si>
+  <si>
+    <t>мокрое, сырое</t>
+  </si>
+  <si>
+    <t>wet (neuter)</t>
+  </si>
+  <si>
+    <t>(S) muzeum</t>
+  </si>
+  <si>
+    <t>(M) nábytek</t>
+  </si>
+  <si>
+    <t>меблі (збірн.)</t>
+  </si>
+  <si>
+    <t>мебель (собир.)</t>
+  </si>
+  <si>
+    <t>знаходитися, бути розташованим</t>
+  </si>
+  <si>
+    <t>находиться, располагаться</t>
+  </si>
+  <si>
+    <t>to be located, to be situated</t>
+  </si>
+  <si>
+    <t>врешті-решт, нарешті, в кінці</t>
+  </si>
+  <si>
+    <t>наконец, в конце концов</t>
+  </si>
+  <si>
+    <t>naplánovat (pf)</t>
+  </si>
+  <si>
+    <t>запланувати</t>
+  </si>
+  <si>
+    <t>запланировать</t>
+  </si>
+  <si>
+    <t>to plan (perfective)</t>
+  </si>
+  <si>
+    <t>plánovat (impf)</t>
+  </si>
+  <si>
+    <t>планувати</t>
+  </si>
+  <si>
+    <t>планировать</t>
+  </si>
+  <si>
+    <t>to plan (imperfective)</t>
+  </si>
+  <si>
+    <t>(S) nástupiště</t>
+  </si>
+  <si>
+    <t>платформа, перон</t>
+  </si>
+  <si>
+    <t>платформа, перрон</t>
+  </si>
+  <si>
+    <t>(M) některý</t>
+  </si>
+  <si>
+    <t>якийсь, деякий</t>
+  </si>
+  <si>
+    <t>какой-то, некоторый</t>
+  </si>
+  <si>
+    <t>(Ž) některá</t>
+  </si>
+  <si>
+    <t>якась, деяка</t>
+  </si>
+  <si>
+    <t>какая-то, некоторая</t>
+  </si>
+  <si>
+    <t>(S) některé</t>
+  </si>
+  <si>
+    <t>якесь, деяке</t>
+  </si>
+  <si>
+    <t>какое-то, некоторое</t>
+  </si>
+  <si>
+    <t>some, certain (neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) nevýhoda</t>
+  </si>
+  <si>
+    <t>недолік</t>
+  </si>
+  <si>
+    <t>недостаток, минус</t>
+  </si>
+  <si>
+    <t>disadvantage</t>
+  </si>
+  <si>
+    <t>(M) notebook</t>
+  </si>
+  <si>
+    <t>ноутбук</t>
+  </si>
+  <si>
+    <t>laptop, notebook</t>
+  </si>
+  <si>
+    <t>(M) obsazený</t>
+  </si>
+  <si>
+    <t>зайнятий</t>
+  </si>
+  <si>
+    <t>занятый, занятой</t>
+  </si>
+  <si>
+    <t>occupied, taken (male)</t>
+  </si>
+  <si>
+    <t>(Ž) obsazená</t>
+  </si>
+  <si>
+    <t>зайнята</t>
+  </si>
+  <si>
+    <t>занятая</t>
+  </si>
+  <si>
+    <t>occupied, taken (female)</t>
+  </si>
+  <si>
+    <t>(S) obsazené</t>
+  </si>
+  <si>
+    <t>зайняте</t>
+  </si>
+  <si>
+    <t>занятое</t>
+  </si>
+  <si>
+    <t>occupied, taken (neuter)</t>
+  </si>
+  <si>
+    <t>(M) odjezd</t>
+  </si>
+  <si>
+    <t>від'їзд, відправлення</t>
+  </si>
+  <si>
+    <t>отъезд, отправление</t>
+  </si>
+  <si>
+    <t>departure (by vehicle)</t>
+  </si>
+  <si>
+    <t>(M) odlet</t>
+  </si>
+  <si>
+    <t>виліт, відліт</t>
+  </si>
+  <si>
+    <t>вылет, отлёт</t>
+  </si>
+  <si>
+    <t>organizovat (impf)</t>
+  </si>
+  <si>
+    <t>організовувати</t>
+  </si>
+  <si>
+    <t>организовывать</t>
+  </si>
+  <si>
+    <t>to organize (imperfective)</t>
+  </si>
+  <si>
+    <t>zorganizovat (pf)</t>
+  </si>
+  <si>
+    <t>організувати</t>
+  </si>
+  <si>
+    <t>организовать</t>
+  </si>
+  <si>
+    <t>to organize (perfective)</t>
+  </si>
+  <si>
+    <t>(Ž) památka</t>
+  </si>
+  <si>
+    <t>пам'ятка (архітектури), пам'ятник; сувенір</t>
+  </si>
+  <si>
+    <t>достопримечательность, памятник; сувенир</t>
+  </si>
+  <si>
+    <t>landmark, historical sight; souvenir</t>
+  </si>
+  <si>
+    <t>(M) papír</t>
+  </si>
+  <si>
+    <t>папір</t>
+  </si>
+  <si>
+    <t>бумага</t>
+  </si>
+  <si>
+    <t>(M) penzion</t>
+  </si>
+  <si>
+    <t>пансіон, гостьовий дім</t>
+  </si>
+  <si>
+    <t>пансион, гостевой дом</t>
+  </si>
+  <si>
+    <t>guesthouse, pension</t>
+  </si>
+  <si>
+    <t>(Ž) plná penze</t>
+  </si>
+  <si>
+    <t>повний пансіон (триразове харчування)</t>
+  </si>
+  <si>
+    <t>полный пансион (трёхразовое питание)</t>
+  </si>
+  <si>
+    <t>full board (accommodation)</t>
+  </si>
+  <si>
+    <t>(S) počasí</t>
+  </si>
+  <si>
+    <t>мінлива хмарність</t>
+  </si>
+  <si>
+    <t>переменная облачность</t>
+  </si>
+  <si>
+    <t>partly cloudy</t>
+  </si>
+  <si>
+    <t>(Ž) polopenze</t>
+  </si>
+  <si>
+    <t>напівпансіон (дворазове харчування)</t>
+  </si>
+  <si>
+    <t>полупансион (двухразовое питание)</t>
+  </si>
+  <si>
+    <t>half board (accommodation)</t>
+  </si>
+  <si>
+    <t>поспішати, спішити</t>
+  </si>
+  <si>
+    <t>спешить, торопиться</t>
+  </si>
+  <si>
+    <t>to hurry</t>
+  </si>
+  <si>
+    <t>poznávat (impf)</t>
+  </si>
+  <si>
+    <t>пізнавати, дізнаватися</t>
+  </si>
+  <si>
+    <t>узнавать, познавать</t>
+  </si>
+  <si>
+    <t>to get to know, to recognize (imperfective)</t>
+  </si>
+  <si>
+    <t>poznat (pf)</t>
+  </si>
+  <si>
+    <t>пізнати, впізнати</t>
+  </si>
+  <si>
+    <t>узнать, познать</t>
+  </si>
+  <si>
+    <t>to get to know, to recognize (perfective)</t>
+  </si>
+  <si>
+    <t>(Pl) prázdniny</t>
+  </si>
+  <si>
+    <t>канікули</t>
+  </si>
+  <si>
+    <t>каникулы</t>
+  </si>
+  <si>
+    <t>holidays, vacation (school/uni)</t>
+  </si>
+  <si>
+    <t>(M) prázdný</t>
+  </si>
+  <si>
+    <t>empty (male)</t>
+  </si>
+  <si>
+    <t>(Ž) prázdná</t>
+  </si>
+  <si>
+    <t>empty (female)</t>
+  </si>
+  <si>
+    <t>(S) prázdné</t>
+  </si>
+  <si>
+    <t>empty (neuter)</t>
+  </si>
+  <si>
+    <t>Йде дощ., Дощить.</t>
+  </si>
+  <si>
+    <t>Идёт дождь., Дождит.</t>
+  </si>
+  <si>
+    <t>Йшов дощ., Дощило.</t>
+  </si>
+  <si>
+    <t>Шёл дождь., Дождило.</t>
+  </si>
+  <si>
+    <t>Буде дощ., Дощитиме.</t>
+  </si>
+  <si>
+    <t>(M) příjezd</t>
+  </si>
+  <si>
+    <t>arrival (by vehicle)</t>
+  </si>
+  <si>
+    <t>(M) přílet</t>
+  </si>
+  <si>
+    <t>прилёт, прибытие (самолётом)</t>
+  </si>
+  <si>
+    <t>(S) rande</t>
+  </si>
+  <si>
+    <t>побачення</t>
+  </si>
+  <si>
+    <t>свидание</t>
+  </si>
+  <si>
+    <t>(Ž) recepce</t>
+  </si>
+  <si>
+    <t>рецепція, приймальня</t>
+  </si>
+  <si>
+    <t>рецепция, приёмная</t>
+  </si>
+  <si>
+    <t>reception (desk)</t>
+  </si>
+  <si>
+    <t>(M/Ž) recepční</t>
+  </si>
+  <si>
+    <t>адміністратор (на рецепції)</t>
+  </si>
+  <si>
+    <t>администратор (на рецепции)</t>
+  </si>
+  <si>
+    <t>receptionist</t>
+  </si>
+  <si>
+    <t>rezervovat si (impf)</t>
+  </si>
+  <si>
+    <t>бронювати (собі)</t>
+  </si>
+  <si>
+    <t>бронировать, резервировать</t>
+  </si>
+  <si>
+    <t>to reserve, to book (imperfective)</t>
+  </si>
+  <si>
+    <t>zarezervovat si (pf)</t>
+  </si>
+  <si>
+    <t>забронювати (собі)</t>
+  </si>
+  <si>
+    <t>забронировать, зарезервировать</t>
+  </si>
+  <si>
+    <t>to reserve, to book (perfective)</t>
+  </si>
+  <si>
+    <t>(M) rozbitý</t>
+  </si>
+  <si>
+    <t>розбитий</t>
+  </si>
+  <si>
+    <t>разбитый</t>
+  </si>
+  <si>
+    <t>broken (male)</t>
+  </si>
+  <si>
+    <t>(Ž) rozbitá</t>
+  </si>
+  <si>
+    <t>розбита</t>
+  </si>
+  <si>
+    <t>разбитая</t>
+  </si>
+  <si>
+    <t>broken (female)</t>
+  </si>
+  <si>
+    <t>(S) rozbité</t>
+  </si>
+  <si>
+    <t>розбите</t>
+  </si>
+  <si>
+    <t>разбитое</t>
+  </si>
+  <si>
+    <t>broken (neuter)</t>
+  </si>
+  <si>
+    <t>розійтися з, розлучитися з</t>
+  </si>
+  <si>
+    <t>разойтись с, расстаться с</t>
+  </si>
+  <si>
+    <t>to break up with</t>
+  </si>
+  <si>
+    <t>(M) ručník</t>
+  </si>
+  <si>
+    <t>rušit (impf)</t>
+  </si>
+  <si>
+    <t>скасовувати; заважати</t>
+  </si>
+  <si>
+    <t>отменять; мешать</t>
+  </si>
+  <si>
+    <t>to cancel; to disturb (imperfective)</t>
+  </si>
+  <si>
+    <t>zrušit (pf)</t>
+  </si>
+  <si>
+    <t>скасувати; завадити</t>
+  </si>
+  <si>
+    <t>отменить; помешать</t>
+  </si>
+  <si>
+    <t>to cancel; to disturb (perfective)</t>
+  </si>
+  <si>
+    <t>to have with one</t>
+  </si>
+  <si>
+    <t>vzít si s sebou (pf)</t>
+  </si>
+  <si>
+    <t>взяти з собою</t>
+  </si>
+  <si>
+    <t>взять с собой</t>
+  </si>
+  <si>
+    <t>to take with one (perfective)</t>
+  </si>
+  <si>
+    <t>brát si s sebou (impf)</t>
+  </si>
+  <si>
+    <t>брати з собою</t>
+  </si>
+  <si>
+    <t>брать с собой</t>
+  </si>
+  <si>
+    <t>to take with one (imperfective)</t>
+  </si>
+  <si>
+    <t>setkávat se s (impf)</t>
+  </si>
+  <si>
+    <t>зустрічатися з</t>
+  </si>
+  <si>
+    <t>встречаться с</t>
+  </si>
+  <si>
+    <t>to meet with (imperfective)</t>
+  </si>
+  <si>
+    <t>setkat se s (pf)</t>
+  </si>
+  <si>
+    <t>зустрітися з</t>
+  </si>
+  <si>
+    <t>встретиться с</t>
+  </si>
+  <si>
+    <t>to meet with (perfective)</t>
+  </si>
+  <si>
+    <t>seznamovat se s (impf)</t>
+  </si>
+  <si>
+    <t>знайомитися з</t>
+  </si>
+  <si>
+    <t>знакомиться с</t>
+  </si>
+  <si>
+    <t>to get acquainted with (imperfective)</t>
+  </si>
+  <si>
+    <t>seznámit se s (pf)</t>
+  </si>
+  <si>
+    <t>познайомитися з</t>
+  </si>
+  <si>
+    <t>познакомиться с</t>
+  </si>
+  <si>
+    <t>to get acquainted with (perfective)</t>
+  </si>
+  <si>
+    <t>(M) schod</t>
+  </si>
+  <si>
+    <t>сходинка</t>
+  </si>
+  <si>
+    <t>ступенька, сход</t>
+  </si>
+  <si>
+    <t>(S) slunce</t>
+  </si>
+  <si>
+    <t>сміятися</t>
+  </si>
+  <si>
+    <t>смеяться</t>
+  </si>
+  <si>
+    <t>to laugh</t>
+  </si>
+  <si>
+    <t>(Ž) smůla</t>
+  </si>
+  <si>
+    <t>невдача, нещастя, "невезуха"</t>
+  </si>
+  <si>
+    <t>неудача, невезение</t>
+  </si>
+  <si>
+    <t>bad luck</t>
+  </si>
+  <si>
+    <t>Йде сніг., Сніжить.</t>
+  </si>
+  <si>
+    <t>Идёт снег., Снежит.</t>
+  </si>
+  <si>
+    <t>Йшов сніг., Сніжило.</t>
+  </si>
+  <si>
+    <t>Шёл снег., Снежило.</t>
+  </si>
+  <si>
+    <t>Буде сніг., Сніжитиме.</t>
+  </si>
+  <si>
+    <t>(Ž) spousta</t>
+  </si>
+  <si>
+    <t>багато, купа</t>
+  </si>
+  <si>
+    <t>много, куча</t>
+  </si>
+  <si>
+    <t>a lot of, loads of</t>
+  </si>
+  <si>
+    <t>стояти; коштувати</t>
+  </si>
+  <si>
+    <t>стоять; стоить</t>
+  </si>
+  <si>
+    <t>to stand; to cost</t>
+  </si>
+  <si>
+    <t>я стою, стою</t>
+  </si>
+  <si>
+    <t>I stand</t>
+  </si>
+  <si>
+    <t>(M) stál</t>
+  </si>
+  <si>
+    <t>він стояв, стояв</t>
+  </si>
+  <si>
+    <t>он стоял, стоял</t>
+  </si>
+  <si>
+    <t>he stood</t>
+  </si>
+  <si>
+    <t>strávit (pf)</t>
+  </si>
+  <si>
+    <t>провести (час)</t>
+  </si>
+  <si>
+    <t>провести (время)</t>
+  </si>
+  <si>
+    <t>to spend (time) (perfective)</t>
+  </si>
+  <si>
+    <t>trávit (impf)</t>
+  </si>
+  <si>
+    <t>проводити (час)</t>
+  </si>
+  <si>
+    <t>проводить (время)</t>
+  </si>
+  <si>
+    <t>to spend (time) (imperfective)</t>
+  </si>
+  <si>
+    <t>(M) suchý</t>
+  </si>
+  <si>
+    <t>dry (male)</t>
+  </si>
+  <si>
+    <t>(Ž) suchá</t>
+  </si>
+  <si>
+    <t>dry (female)</t>
+  </si>
+  <si>
+    <t>(S) suché</t>
+  </si>
+  <si>
+    <t>dry (neuter)</t>
+  </si>
+  <si>
+    <t>світити</t>
+  </si>
+  <si>
+    <t>светить</t>
+  </si>
+  <si>
+    <t>to shine</t>
+  </si>
+  <si>
+    <t>(S) štěstí</t>
+  </si>
+  <si>
+    <t>щастя; удача</t>
+  </si>
+  <si>
+    <t>счастье; удача</t>
+  </si>
+  <si>
+    <t>happiness; luck</t>
+  </si>
+  <si>
+    <t>(S) ticho</t>
+  </si>
+  <si>
+    <t>тиша</t>
+  </si>
+  <si>
+    <t>(M) tichý</t>
+  </si>
+  <si>
+    <t>тихий</t>
+  </si>
+  <si>
+    <t>quiet (male)</t>
+  </si>
+  <si>
+    <t>(Ž) tichá</t>
+  </si>
+  <si>
+    <t>тиха</t>
+  </si>
+  <si>
+    <t>тихая</t>
+  </si>
+  <si>
+    <t>quiet (female)</t>
+  </si>
+  <si>
+    <t>(S) tiché</t>
+  </si>
+  <si>
+    <t>тихе</t>
+  </si>
+  <si>
+    <t>тихое</t>
+  </si>
+  <si>
+    <t>quiet (neuter)</t>
+  </si>
+  <si>
+    <t>(M) turista</t>
+  </si>
+  <si>
+    <t>(Ž) turistka</t>
+  </si>
+  <si>
+    <t>(S) ubytování</t>
+  </si>
+  <si>
+    <t>проживание, жильё</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>поселитися, зупинитися (в готелі)</t>
+  </si>
+  <si>
+    <t>поселиться, разместиться (в отеле)</t>
+  </si>
+  <si>
+    <t>to check in, to get accommodation</t>
+  </si>
+  <si>
+    <t>(S) umyvadlo</t>
+  </si>
+  <si>
+    <t>Як (там) надворі?, Яка погода?</t>
+  </si>
+  <si>
+    <t>Как (там) на улице?, Какая погода?</t>
+  </si>
+  <si>
+    <t>What's it like outside?, How's the weather?</t>
+  </si>
+  <si>
+    <t>вірити</t>
+  </si>
+  <si>
+    <t>верить</t>
+  </si>
+  <si>
+    <t>to believe</t>
+  </si>
+  <si>
+    <t>(M) vítr</t>
+  </si>
+  <si>
+    <t>(Ž) výhoda</t>
+  </si>
+  <si>
+    <t>перевага</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>(M) výtah</t>
+  </si>
+  <si>
+    <t>elevator, lift</t>
+  </si>
+  <si>
+    <t>(M) začátek</t>
+  </si>
+  <si>
+    <t>na (M) začátku</t>
+  </si>
+  <si>
+    <t>at the beginning (of)</t>
+  </si>
+  <si>
+    <t>(Ž) zahrada</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>(M) zájezd</t>
+  </si>
+  <si>
+    <t>поїздка, тур</t>
+  </si>
+  <si>
+    <t>поездка, тур</t>
+  </si>
+  <si>
+    <t>tour, trip (organized)</t>
+  </si>
+  <si>
+    <t>zaparkovat (pf)</t>
+  </si>
+  <si>
+    <t>припаркуватися, запаркуватися</t>
+  </si>
+  <si>
+    <t>припарковаться, запарковаться</t>
+  </si>
+  <si>
+    <t>to park (perfective)</t>
+  </si>
+  <si>
+    <t>parkovat (impf)</t>
+  </si>
+  <si>
+    <t>паркуватися</t>
+  </si>
+  <si>
+    <t>парковаться</t>
+  </si>
+  <si>
+    <t>to park (imperfective)</t>
+  </si>
+  <si>
+    <t>(M) zařízený</t>
+  </si>
+  <si>
+    <t>мебльований, обладнаний</t>
+  </si>
+  <si>
+    <t>меблированный, оборудованный</t>
+  </si>
+  <si>
+    <t>furnished, equipped (male)</t>
+  </si>
+  <si>
+    <t>(Ž) zařízená</t>
+  </si>
+  <si>
+    <t>мебльована, обладнана</t>
+  </si>
+  <si>
+    <t>меблированная, оборудованная</t>
+  </si>
+  <si>
+    <t>furnished, equipped (female)</t>
+  </si>
+  <si>
+    <t>(S) zařízené</t>
+  </si>
+  <si>
+    <t>мебльоване, обладнане</t>
+  </si>
+  <si>
+    <t>меблированное, оборудованное</t>
+  </si>
+  <si>
+    <t>furnished, equipped (neuter)</t>
+  </si>
+  <si>
+    <t>хмарно, похмуро</t>
+  </si>
+  <si>
+    <t>пасмурно, облачно</t>
+  </si>
+  <si>
+    <t>(it is) overcast</t>
+  </si>
+  <si>
+    <t>(S) zavazadlo</t>
+  </si>
+  <si>
+    <t>багаж</t>
+  </si>
+  <si>
+    <t>zjistit (pf)</t>
+  </si>
+  <si>
+    <t>з'ясувати, дізнатися</t>
+  </si>
+  <si>
+    <t>выяснить, узнать</t>
+  </si>
+  <si>
+    <t>to find out, to discover (perfective)</t>
+  </si>
+  <si>
+    <t>(Ž) změna</t>
+  </si>
+  <si>
+    <t>зміна</t>
+  </si>
+  <si>
+    <t>изменение, перемена, сдача</t>
+  </si>
+  <si>
+    <t>змінити</t>
+  </si>
+  <si>
+    <t>изменить</t>
+  </si>
+  <si>
+    <t>міняти</t>
+  </si>
+  <si>
+    <t>менять</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) zpáteční</t>
+  </si>
+  <si>
+    <t>зворотний, -а, -е</t>
+  </si>
+  <si>
+    <t>обратный, -ая, -ое</t>
+  </si>
+  <si>
+    <t>return (adj) (e.g., ticket)</t>
+  </si>
+  <si>
+    <t>(S) zpoždění</t>
+  </si>
+  <si>
+    <t>запізнення</t>
   </si>
 </sst>
 </file>
@@ -2144,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,2388 +2193,2388 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>151</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>124</v>
+        <v>179</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>137</v>
+        <v>191</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>139</v>
+        <v>194</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>150</v>
+        <v>202</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>150</v>
+        <v>206</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>150</v>
+        <v>210</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>159</v>
+        <v>214</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>166</v>
+        <v>222</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>187</v>
+        <v>238</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>28</v>
+        <v>242</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>229</v>
+        <v>277</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>233</v>
+        <v>281</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>240</v>
+        <v>43</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>251</v>
+        <v>298</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>252</v>
+        <v>301</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>256</v>
+        <v>305</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1</v>
+        <v>314</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>37</v>
+        <v>315</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>265</v>
+        <v>317</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>276</v>
+        <v>328</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>39</v>
+        <v>330</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>280</v>
+        <v>335</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>281</v>
+        <v>336</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>283</v>
+        <v>338</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>284</v>
+        <v>339</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>233</v>
+        <v>281</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>229</v>
+        <v>277</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>287</v>
+        <v>342</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>42</v>
+        <v>345</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>290</v>
+        <v>47</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>290</v>
+        <v>47</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>294</v>
+        <v>347</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>348</v>
       </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>44</v>
+        <v>368</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>315</v>
+        <v>50</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>316</v>
+        <v>51</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>317</v>
+        <v>369</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>318</v>
+        <v>370</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>320</v>
+        <v>53</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>321</v>
+        <v>372</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>322</v>
+        <v>54</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>323</v>
+        <v>55</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>327</v>
+        <v>57</v>
       </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>328</v>
+        <v>58</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>331</v>
+        <v>59</v>
       </c>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>332</v>
+        <v>60</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>334</v>
+        <v>61</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>335</v>
+        <v>62</v>
       </c>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>45</v>
+        <v>379</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>336</v>
+        <v>63</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>338</v>
+        <v>64</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>380</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>46</v>
+        <v>381</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>339</v>
+        <v>65</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>345</v>
+        <v>67</v>
       </c>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>393</v>
       </c>
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>364</v>
+        <v>404</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>364</v>
+        <v>408</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>364</v>
+        <v>412</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>371</v>
+        <v>68</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>374</v>
+        <v>415</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>48</v>
+        <v>417</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>375</v>
+        <v>69</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>376</v>
+        <v>70</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>377</v>
+        <v>71</v>
       </c>
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>386</v>
+        <v>72</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>387</v>
+        <v>73</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>389</v>
+        <v>74</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>390</v>
+        <v>427</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>395</v>
+        <v>432</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>404</v>
+        <v>441</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>405</v>
+        <v>442</v>
       </c>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>413</v>
+        <v>450</v>
       </c>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>49</v>
+        <v>451</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>416</v>
+        <v>75</v>
       </c>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>417</v>
+        <v>454</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>418</v>
+        <v>76</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>420</v>
+        <v>78</v>
       </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>50</v>
+        <v>458</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>427</v>
+        <v>460</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>461</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>435</v>
+        <v>83</v>
       </c>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>436</v>
+        <v>84</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>438</v>
+        <v>85</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>439</v>
+        <v>86</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>444</v>
+        <v>87</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>447</v>
+        <v>472</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>473</v>
       </c>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>448</v>
+        <v>88</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>449</v>
+        <v>474</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>51</v>
+        <v>488</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>464</v>
+        <v>89</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>465</v>
+        <v>90</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>468</v>
+        <v>91</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>469</v>
+        <v>92</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>466</v>
+        <v>491</v>
       </c>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>471</v>
+        <v>93</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>472</v>
+        <v>94</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>473</v>
+        <v>95</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>476</v>
+        <v>495</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>496</v>
       </c>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>4</v>
+        <v>498</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>5</v>
+        <v>499</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>52</v>
+        <v>501</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>478</v>
+        <v>96</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>479</v>
+        <v>97</v>
       </c>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>53</v>
+        <v>503</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>482</v>
+        <v>504</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>505</v>
       </c>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>482</v>
+        <v>508</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="D127" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="E128" s="4"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>489</v>
+        <v>514</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>490</v>
+        <v>98</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>490</v>
+        <v>98</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>491</v>
+        <v>99</v>
       </c>
       <c r="E129" s="4"/>
     </row>
     <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>492</v>
+        <v>515</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>493</v>
+        <v>100</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>494</v>
+        <v>101</v>
       </c>
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>54</v>
+        <v>516</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>495</v>
+        <v>102</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>497</v>
+        <v>517</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>518</v>
       </c>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>498</v>
+        <v>103</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>55</v>
+        <v>522</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>502</v>
+        <v>104</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>503</v>
+        <v>105</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>504</v>
+        <v>106</v>
       </c>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>505</v>
+        <v>107</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>509</v>
+        <v>108</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>56</v>
+        <v>529</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>513</v>
+        <v>109</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>514</v>
+        <v>110</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>515</v>
+        <v>111</v>
       </c>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>57</v>
+        <v>530</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>518</v>
+        <v>112</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>58</v>
+        <v>533</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>519</v>
+        <v>113</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>520</v>
+        <v>114</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>523</v>
+        <v>115</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>524</v>
+        <v>116</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>525</v>
+        <v>117</v>
       </c>
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>527</v>
+        <v>118</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>529</v>
+        <v>119</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>59</v>
+        <v>538</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>530</v>
+        <v>120</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>531</v>
+        <v>121</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>60</v>
+        <v>540</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>539</v>
+        <v>546</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>2</v>
+        <v>548</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>3</v>
+        <v>550</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>551</v>
       </c>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>61</v>
+        <v>552</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="E147" s="4"/>
     </row>
     <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="E149" s="4"/>
     </row>
     <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>63</v>
+        <v>567</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>556</v>
+        <v>122</v>
       </c>
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="E152" s="4"/>
     </row>
     <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>64</v>
+        <v>573</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>563</v>
+        <v>123</v>
       </c>
       <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="E155" s="4"/>
     </row>
     <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>276</v>
+        <v>328</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="E156" s="4"/>
     </row>
     <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="D158" s="6" t="s">
-        <v>570</v>
+        <v>582</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>583</v>
       </c>
       <c r="E158" s="4"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>66</v>
+        <v>584</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>572</v>
+        <v>124</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>573</v>
+        <v>125</v>
       </c>
       <c r="E159" s="4"/>
     </row>
